--- a/pvals_results_sharpened.xlsx
+++ b/pvals_results_sharpened.xlsx
@@ -9,6 +9,23 @@
   </sheets>
   <calcPr fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="4">
+  <si>
+    <t>pval</t>
+  </si>
+  <si>
+    <t>original_sorting_order</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>bky06_qval</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,42 +70,42 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>0.060437315270687852</v>
-      </c>
-      <c r="B1" s="0">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0">
-        <v>12</v>
-      </c>
-      <c r="D1" s="0">
-        <v>0.17900000512599945</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.74180390807508156</v>
+        <v>0.060437315270687852</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0">
-        <v>0.75199997425079346</v>
+        <v>0.17900000512599945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.6301239792532769</v>
+        <v>0.74180390807508156</v>
       </c>
       <c r="B3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="0">
         <v>0.75199997425079346</v>
@@ -96,181 +113,181 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.35132108942871387</v>
+        <v>0.6301239792532769</v>
       </c>
       <c r="B4" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0">
-        <v>0.43999999761581421</v>
+        <v>0.75199997425079346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.016210692099364765</v>
+        <v>0.35132108942871387</v>
       </c>
       <c r="B5" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0">
-        <v>0.16599999368190765</v>
+        <v>0.43999999761581421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.84760536011916776</v>
+        <v>0.016210692099364765</v>
       </c>
       <c r="B6" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0">
-        <v>0.81499999761581421</v>
+        <v>0.16599999368190765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.27663271664463029</v>
+        <v>0.84760536011916776</v>
       </c>
       <c r="B7" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0">
-        <v>0.3580000102519989</v>
+        <v>0.81499999761581421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.38193674269336242</v>
+        <v>0.27663271664463029</v>
       </c>
       <c r="B8" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0">
-        <v>0.46700000762939453</v>
+        <v>0.3580000102519989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9834632102106331</v>
+        <v>0.38193674269336242</v>
       </c>
       <c r="B9" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0">
-        <v>0.82999998331069946</v>
+        <v>0.46700000762939453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.68983032615264073</v>
+        <v>0.9834632102106331</v>
       </c>
       <c r="B10" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0">
-        <v>0.75199997425079346</v>
+        <v>0.82999998331069946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2981274603584565</v>
+        <v>0.68983032615264073</v>
       </c>
       <c r="B11" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0">
-        <v>0.37200000882148743</v>
+        <v>0.75199997425079346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.54246154433250537</v>
+        <v>0.2981274603584565</v>
       </c>
       <c r="B12" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0">
-        <v>0.71700000762939453</v>
+        <v>0.37200000882148743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.25187715189769389</v>
+        <v>0.54246154433250537</v>
       </c>
       <c r="B13" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0">
-        <v>0.33700001239776611</v>
+        <v>0.71700000762939453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.23820531857282956</v>
+        <v>0.25187715189769389</v>
       </c>
       <c r="B14" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0">
-        <v>0.33500000834465027</v>
+        <v>0.33700001239776611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6124184631873838</v>
+        <v>0.23820531857282956</v>
       </c>
       <c r="B15" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D15" s="0">
-        <v>0.75199997425079346</v>
+        <v>0.33500000834465027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.75137816240727318</v>
+        <v>0.6124184631873838</v>
       </c>
       <c r="B16" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="0">
         <v>0.75199997425079346</v>
@@ -278,13 +295,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.65470499408511185</v>
+        <v>0.75137816240727318</v>
       </c>
       <c r="B17" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" s="0">
         <v>0.75199997425079346</v>
@@ -292,111 +309,111 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.21448249595503555</v>
+        <v>0.65470499408511185</v>
       </c>
       <c r="B18" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D18" s="0">
-        <v>0.31299999356269836</v>
+        <v>0.75199997425079346</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.92144862282535844</v>
+        <v>0.21448249595503555</v>
       </c>
       <c r="B19" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D19" s="0">
-        <v>0.82300001382827759</v>
+        <v>0.31299999356269836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8105777420252962</v>
+        <v>0.92144862282535844</v>
       </c>
       <c r="B20" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="0">
-        <v>0.7929999828338623</v>
+        <v>0.82300001382827759</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.20659453679405337</v>
+        <v>0.8105777420252962</v>
       </c>
       <c r="B21" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D21" s="0">
-        <v>0.31299999356269836</v>
+        <v>0.7929999828338623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.49094258352280651</v>
+        <v>0.20659453679405337</v>
       </c>
       <c r="B22" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D22" s="0">
-        <v>0.6470000147819519</v>
+        <v>0.31299999356269836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.021105812447572481</v>
+        <v>0.49094258352280651</v>
       </c>
       <c r="B23" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="0">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D23" s="0">
-        <v>0.17100000381469727</v>
+        <v>0.6470000147819519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.042908142091662681</v>
+        <v>0.021105812447572481</v>
       </c>
       <c r="B24" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D24" s="0">
-        <v>0.17900000512599945</v>
+        <v>0.17100000381469727</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.075677041816267068</v>
+        <v>0.042908142091662681</v>
       </c>
       <c r="B25" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0">
         <v>0.17900000512599945</v>
@@ -404,13 +421,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.075634911171087449</v>
+        <v>0.075677041816267068</v>
       </c>
       <c r="B26" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0">
         <v>0.17900000512599945</v>
@@ -418,41 +435,41 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0020376377352980036</v>
+        <v>0.075634911171087449</v>
       </c>
       <c r="B27" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="0">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D27" s="0">
-        <v>0.079999998211860657</v>
+        <v>0.17900000512599945</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.036871259528247012</v>
+        <v>0.0020376377352980036</v>
       </c>
       <c r="B28" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28" s="0">
-        <v>0.17900000512599945</v>
+        <v>0.079999998211860657</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.067169497748808524</v>
+        <v>0.036871259528247012</v>
       </c>
       <c r="B29" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D29" s="0">
         <v>0.17900000512599945</v>
@@ -460,13 +477,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.039491555877970416</v>
+        <v>0.067169497748808524</v>
       </c>
       <c r="B30" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" s="0">
         <v>0.17900000512599945</v>
@@ -474,13 +491,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.04943640526149766</v>
+        <v>0.039491555877970416</v>
       </c>
       <c r="B31" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="0">
         <v>0.17900000512599945</v>
@@ -488,27 +505,27 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.011846874700567467</v>
+        <v>0.04943640526149766</v>
       </c>
       <c r="B32" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D32" s="0">
-        <v>0.16599999368190765</v>
+        <v>0.17900000512599945</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.012789746518818446</v>
+        <v>0.011846874700567467</v>
       </c>
       <c r="B33" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="0">
         <v>0.16599999368190765</v>
@@ -516,27 +533,27 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.055801425032931215</v>
+        <v>0.012789746518818446</v>
       </c>
       <c r="B34" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.17900000512599945</v>
+        <v>0.16599999368190765</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.065736830641159177</v>
+        <v>0.055801425032931215</v>
       </c>
       <c r="B35" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="0">
         <v>0.17900000512599945</v>
@@ -544,15 +561,29 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
+        <v>0.065736830641159177</v>
+      </c>
+      <c r="B36" s="0">
+        <v>35</v>
+      </c>
+      <c r="C36" s="0">
+        <v>13</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.17900000512599945</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
         <v>0.027748075987535502</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B37" s="0">
         <v>36</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C37" s="0">
         <v>6</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D37" s="0">
         <v>0.17399999499320984</v>
       </c>
     </row>
